--- a/evaluation_examples/examples/sheetcopilot/b6da532f-9c4c-4e47-a302-a2c51972134f/3_PeriodRate_gt1.xlsx
+++ b/evaluation_examples/examples/sheetcopilot/b6da532f-9c4c-4e47-a302-a2c51972134f/3_PeriodRate_gt1.xlsx
@@ -1,45 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <workbookPr hidePivotFieldList="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujipqiu/Github/DesktopEnv/evaluation_examples/examples/sheetcopilot/b6da532f-9c4c-4e47-a302-a2c51972134f/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E928D263-8FBF-7E49-AC8D-6657C2D15DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="8112" windowHeight="12360" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="6760" yWindow="8760" windowWidth="15420" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+  <si>
+    <t>Annual Rate (%)</t>
+  </si>
+  <si>
+    <t>Period per year</t>
+  </si>
+  <si>
+    <t>Average - Annual Rate (%)</t>
+  </si>
+  <si>
+    <t>Total Result</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,111 +77,1146 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="1" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="53">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" refreshedBy="hongxin li" refreshedDate="45053.48764016203" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="24" r:id="rId1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="hongxin li" refreshedDate="45053.487640162028" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="24" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B25" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="2">
-    <cacheField name="Annual Rate (%)" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="0" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="7.776" maxValue="18.584"/>
+    <cacheField name="Annual Rate (%)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7.7759999999999998" maxValue="18.584"/>
     </cacheField>
-    <cacheField name="Period per year" uniqueList="1" numFmtId="0" sqlType="0" hierarchy="0" level="0" databaseField="1">
-      <sharedItems count="7" containsInteger="1" containsNumber="1" containsSemiMixedTypes="0" containsString="0" minValue="1" maxValue="8">
+    <cacheField name="Period per year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8" count="7">
         <n v="2"/>
         <n v="6"/>
         <n v="8"/>
@@ -170,6 +1227,11 @@
       </sharedItems>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -275,20 +1337,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" dataOnRows="0" dataCaption="Values" showError="0" showMissing="1" updatedVersion="8" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="8" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Total Result" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Period per year">
   <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
-    <pivotField dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
       <items count="8">
-        <item t="data" sd="1" x="6"/>
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" x="5"/>
-        <item t="data" sd="1" x="3"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="data" sd="1" x="4"/>
-        <item t="data" sd="1" x="2"/>
-        <item t="default" sd="1"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -296,38 +1358,89 @@
     <field x="1"/>
   </rowFields>
   <rowItems count="8">
-    <i t="data" r="0" i="0">
-      <x v="0"/>
+    <i>
+      <x/>
     </i>
-    <i t="data" r="0" i="0">
+    <i>
       <x v="1"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i>
       <x v="2"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i>
       <x v="3"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i>
       <x v="4"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i>
       <x v="5"/>
     </i>
-    <i t="data" r="0" i="0">
+    <i>
       <x v="6"/>
     </i>
-    <i t="grand" r="0" i="0">
-      <x v="0"/>
+    <i t="grand">
+      <x/>
     </i>
   </rowItems>
   <colItems count="1">
-    <i t="data" r="0" i="0"/>
+    <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Annual Rate (%)" fld="0" subtotal="average" showDataAs="normal" baseField="1" baseItem="0"/>
+    <dataField name="Average - Annual Rate (%)" fld="0" subtotal="average" baseField="1" baseItem="0"/>
   </dataFields>
+  <formats count="12">
+    <format dxfId="36">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="37">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="42">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="44">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="45">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="46">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
@@ -627,329 +1740,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="14.33203125" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="27.77734375" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
+    <col min="1" max="1" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Row Labels</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>Average of Annual Rate (%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>14.724</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>11.8676</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="B3" s="2">
+        <v>11.867599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="2">
         <v>15.496</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="2">
         <v>12.66533333333334</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="2">
         <v>13.952</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="2">
         <v>14.20933333333333</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="2">
         <v>15.882</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>Grand Total</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>13.51775</v>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>13.517749999999999</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B25"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="13.77734375" customWidth="1" style="1" min="1" max="1"/>
-    <col width="13.88671875" customWidth="1" style="1" min="2" max="2"/>
+    <col min="1" max="2" width="13.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Annual Rate (%)</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Period per year</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>11.25</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="n">
-        <v>7.776</v>
-      </c>
-      <c r="B3" s="4" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>7.7759999999999998</v>
+      </c>
+      <c r="B3">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>15.496</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>9.32</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>18.584</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>18.198</v>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="n">
-        <v>17.812</v>
-      </c>
-      <c r="B8" s="4" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>17.812000000000001</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="4" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>14.724</v>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9">
         <v>2</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4" t="n">
-        <v>16.268</v>
-      </c>
-      <c r="B10" s="4" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>16.268000000000001</v>
+      </c>
+      <c r="B10">
         <v>7</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="4" t="n">
-        <v>13.566</v>
-      </c>
-      <c r="B11" s="4" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>13.566000000000001</v>
+      </c>
+      <c r="B11">
         <v>8</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="4" t="n">
-        <v>14.338</v>
-      </c>
-      <c r="B12" s="4" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>14.337999999999999</v>
+      </c>
+      <c r="B12">
         <v>5</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="4" t="n">
-        <v>9.706</v>
-      </c>
-      <c r="B13" s="4" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>9.7059999999999995</v>
+      </c>
+      <c r="B13">
         <v>5</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4" t="n">
-        <v>13.566</v>
-      </c>
-      <c r="B14" s="4" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13.566000000000001</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="n">
-        <v>9.706</v>
-      </c>
-      <c r="B15" s="4" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>9.7059999999999995</v>
+      </c>
+      <c r="B15">
         <v>5</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="4" t="n">
-        <v>13.566</v>
-      </c>
-      <c r="B16" s="4" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>13.566000000000001</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="4" t="n">
-        <v>7.776</v>
-      </c>
-      <c r="B17" s="4" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>7.7759999999999998</v>
+      </c>
+      <c r="B17">
         <v>7</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="4" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>15.11</v>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18">
         <v>5</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="4" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>15.496</v>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19">
         <v>3</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="4" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>14.724</v>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="4" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>12.794</v>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21">
         <v>7</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="4" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>9.32</v>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22">
         <v>5</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="4" t="n">
-        <v>16.268</v>
-      </c>
-      <c r="B23" s="4" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>16.268000000000001</v>
+      </c>
+      <c r="B23">
         <v>7</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="4" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>10.478</v>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24">
         <v>2</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="4" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>18.584</v>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>